--- a/koboforms/section9.xlsx
+++ b/koboforms/section9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deo/whatsthepointgameinteractive/koboforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA4971CC-C497-7D49-9250-4EEB7B4C07FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AC70E0-9F21-2041-849D-192B5A5D98E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="-18080" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{05574417-E28B-7A44-8D51-6FA488FA6DA5}"/>
+    <workbookView xWindow="35140" yWindow="-19700" windowWidth="28040" windowHeight="17440" xr2:uid="{05574417-E28B-7A44-8D51-6FA488FA6DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>type</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Your email</t>
   </si>
   <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -108,31 +105,37 @@
     <t>q7</t>
   </si>
   <si>
-    <t>partial_useful</t>
-  </si>
-  <si>
-    <t>section8</t>
-  </si>
-  <si>
-    <t>Savings Discussion</t>
-  </si>
-  <si>
-    <t>How did you make your choice?</t>
-  </si>
-  <si>
-    <t>Would it make sense to pool savings across your community, the entire project?</t>
-  </si>
-  <si>
-    <t>Would it be difficult to determine how much savings to use/share during a drought?</t>
-  </si>
-  <si>
-    <t>What are some strategies to use to decide how to spend savings in a drought?</t>
-  </si>
-  <si>
-    <t>Does a coin put into insurance yield a larger end of season value if there is a drought?</t>
-  </si>
-  <si>
-    <t>Discuss if  you want to set up an initial pot of money (perhaps from a donor) so that contributions to savings are topping off a complimentary risk fund to keep it sustainable?r why not is it useful have partial insurance?</t>
+    <t>section9</t>
+  </si>
+  <si>
+    <t>YourGumGame</t>
+  </si>
+  <si>
+    <t>Describe the scenario for the game</t>
+  </si>
+  <si>
+    <t>Where do your parameters come from?</t>
+  </si>
+  <si>
+    <t>Where do you make reasonable assumptions instead of getting parameters from references?</t>
+  </si>
+  <si>
+    <t>What are the general instructions for the game?</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>Describe the investment that creates value, and how</t>
+  </si>
+  <si>
+    <t>Describe how since insurance simply moves money between years, for a fee, and how someone would tell if it is worthwhile or not.</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>multiline</t>
   </si>
 </sst>
 </file>
@@ -508,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C7F9E-9867-6243-AAB9-77628DC2993D}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,7 +522,7 @@
     <col min="3" max="3" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,8 +535,11 @@
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -547,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -555,13 +561,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -569,66 +578,81 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +672,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -659,24 +683,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DF2FC2-2B0D-0B42-899E-2C094C966549}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -710,10 +734,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
